--- a/Code/Results/Cases/Case_1_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_253/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.57808120873291</v>
+        <v>18.93154223749944</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.92299613296303</v>
+        <v>7.486252983760925</v>
       </c>
       <c r="E2">
-        <v>49.10314559301448</v>
+        <v>26.34420579266186</v>
       </c>
       <c r="F2">
-        <v>65.03003792781831</v>
+        <v>43.90995181043784</v>
       </c>
       <c r="G2">
-        <v>1.893287634602596</v>
+        <v>3.639151515505089</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.24031709131125</v>
+        <v>24.22231225039193</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.14899417570208</v>
+        <v>13.80559457550026</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.78677930122353</v>
+        <v>18.40400383739879</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.080546964152882</v>
+        <v>7.427461062668137</v>
       </c>
       <c r="E3">
-        <v>45.29495664850444</v>
+        <v>24.69422820864891</v>
       </c>
       <c r="F3">
-        <v>59.42333764228329</v>
+        <v>42.78218030129256</v>
       </c>
       <c r="G3">
-        <v>1.926957941219622</v>
+        <v>3.648051832361162</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.50022508088236</v>
+        <v>24.55071170708684</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.65966123704043</v>
+        <v>13.46098306542121</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.64171411598062</v>
+        <v>18.07535418724256</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.567237528397191</v>
+        <v>7.395980570209996</v>
       </c>
       <c r="E4">
-        <v>42.91412770130385</v>
+        <v>23.62263855435555</v>
       </c>
       <c r="F4">
-        <v>55.99333579238645</v>
+        <v>42.10184247013062</v>
       </c>
       <c r="G4">
-        <v>1.947131375565491</v>
+        <v>3.653768711543347</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.26909770768613</v>
+        <v>24.76092740271038</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.72052004430279</v>
+        <v>13.24884841513078</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.1629919994662</v>
+        <v>17.94042784500537</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.388391793907322</v>
+        <v>7.384309345525342</v>
       </c>
       <c r="E5">
-        <v>41.92965667423147</v>
+        <v>23.1712759940711</v>
       </c>
       <c r="F5">
-        <v>54.59308231130474</v>
+        <v>41.82808832876966</v>
       </c>
       <c r="G5">
-        <v>1.955280069608324</v>
+        <v>3.656162232874639</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.58210054978692</v>
+        <v>24.84876178970738</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.33052154315594</v>
+        <v>13.16239092067583</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.08275148956337</v>
+        <v>17.91796895185421</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.362052403606688</v>
+        <v>7.382441069519056</v>
       </c>
       <c r="E6">
-        <v>41.76523764930577</v>
+        <v>23.0954421209373</v>
       </c>
       <c r="F6">
-        <v>54.36028755446235</v>
+        <v>41.78285528461852</v>
       </c>
       <c r="G6">
-        <v>1.956630118660807</v>
+        <v>3.656563545024724</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.63407930020636</v>
+        <v>24.8634780516073</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.26529526677724</v>
+        <v>13.14803780794216</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.63530773797208</v>
+        <v>18.07353830496393</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.564417376060812</v>
+        <v>7.395818489543315</v>
       </c>
       <c r="E7">
-        <v>42.90091256668524</v>
+        <v>23.61661071206052</v>
       </c>
       <c r="F7">
-        <v>55.9744678130082</v>
+        <v>42.09813581555773</v>
       </c>
       <c r="G7">
-        <v>1.947241502544751</v>
+        <v>3.653800732279901</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.27331916304466</v>
+        <v>24.76210316536039</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.71529115694012</v>
+        <v>13.2476822944495</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.96932051554295</v>
+        <v>18.7507425284142</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.63098265135787</v>
+        <v>7.465021720837463</v>
       </c>
       <c r="E8">
-        <v>47.79645051660098</v>
+        <v>25.78744540290887</v>
       </c>
       <c r="F8">
-        <v>63.09023071485677</v>
+        <v>43.51884563279096</v>
       </c>
       <c r="G8">
-        <v>1.905038053389517</v>
+        <v>3.642168315410911</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.67624617719427</v>
+        <v>24.33377208995873</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.63985214955074</v>
+        <v>13.68695873563933</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.23445858443579</v>
+        <v>20.03328718501071</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.82326084038771</v>
+        <v>7.637385567601935</v>
       </c>
       <c r="E9">
-        <v>57.29657849275868</v>
+        <v>29.58002544393358</v>
       </c>
       <c r="F9">
-        <v>77.53866582966964</v>
+        <v>46.38181724292822</v>
       </c>
       <c r="G9">
-        <v>1.814767705497357</v>
+        <v>3.621335563657547</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7.472304447703401</v>
+        <v>23.56127047856659</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.2882573110539</v>
+        <v>14.53883118912527</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.28673206648818</v>
+        <v>20.93826574673055</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.66667397118053</v>
+        <v>7.786174136098849</v>
       </c>
       <c r="E10">
-        <v>64.80161901633421</v>
+        <v>32.0840434632935</v>
       </c>
       <c r="F10">
-        <v>89.44470407280271</v>
+        <v>48.5073024520302</v>
       </c>
       <c r="G10">
-        <v>1.735270683703108</v>
+        <v>3.607205354309119</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.120656638105223</v>
+        <v>23.03398224515062</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>25.05954016741662</v>
+        <v>15.15228869094822</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.71268670026367</v>
+        <v>21.34009882768034</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.64752886891787</v>
+        <v>7.858570037809044</v>
       </c>
       <c r="E11">
-        <v>68.64516188140738</v>
+        <v>33.16225185366297</v>
       </c>
       <c r="F11">
-        <v>95.67191751386453</v>
+        <v>49.47413545366794</v>
       </c>
       <c r="G11">
-        <v>1.691693438185475</v>
+        <v>3.601025720509365</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.137046767638081</v>
+        <v>22.80266307115258</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>26.42717042354413</v>
+        <v>15.42741590334697</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.26939252398456</v>
+        <v>21.49071737719738</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>14.05893641659154</v>
+        <v>7.886649463528663</v>
       </c>
       <c r="E12">
-        <v>70.22986230158152</v>
+        <v>33.56182586500049</v>
       </c>
       <c r="F12">
-        <v>98.25909509008326</v>
+        <v>49.83986590875629</v>
       </c>
       <c r="G12">
-        <v>1.673162135851947</v>
+        <v>3.598720810316119</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.699240845951875</v>
+        <v>22.71628287263836</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.97874174737636</v>
+        <v>15.5309387906421</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.14841535970363</v>
+        <v>21.45834972722984</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.96796694667045</v>
+        <v>7.8805727225901</v>
       </c>
       <c r="E13">
-        <v>69.88078455917406</v>
+        <v>33.47615766231155</v>
       </c>
       <c r="F13">
-        <v>97.68834074097505</v>
+        <v>49.76112232265491</v>
       </c>
       <c r="G13">
-        <v>1.67727236206891</v>
+        <v>3.599215657547322</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.573706474126483</v>
+        <v>22.73483256006374</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>26.85790567833529</v>
+        <v>15.50867415697847</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.75803851201559</v>
+        <v>21.35252201387238</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.68037665520976</v>
+        <v>7.860866909222697</v>
       </c>
       <c r="E14">
-        <v>68.77226083757249</v>
+        <v>33.19529959061747</v>
       </c>
       <c r="F14">
-        <v>95.87903999946356</v>
+        <v>49.50423417329714</v>
       </c>
       <c r="G14">
-        <v>1.690219267210125</v>
+        <v>3.600835392046529</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.18135497662641</v>
+        <v>22.79553224169196</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>26.47168917565598</v>
+        <v>15.43594657681641</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.52165271637508</v>
+        <v>21.28749435991653</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>13.51038787016057</v>
+        <v>7.848882671362359</v>
       </c>
       <c r="E15">
-        <v>68.11342171533846</v>
+        <v>33.02213143487459</v>
       </c>
       <c r="F15">
-        <v>94.80614915975002</v>
+        <v>49.34682141894118</v>
       </c>
       <c r="G15">
-        <v>1.697837927146379</v>
+        <v>3.601832092516926</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.953367872695418</v>
+        <v>22.83287041572821</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>26.24040413594043</v>
+        <v>15.3913099438983</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.19502377789471</v>
+        <v>20.91179538171079</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.60667660436981</v>
+        <v>7.781536653118483</v>
       </c>
       <c r="E16">
-        <v>64.56335778212055</v>
+        <v>32.01235772059846</v>
       </c>
       <c r="F16">
-        <v>89.06122406871285</v>
+        <v>48.44408335064775</v>
       </c>
       <c r="G16">
-        <v>1.737908027644891</v>
+        <v>3.607614159688183</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.186599573454107</v>
+        <v>23.04927031601998</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.97348230427582</v>
+        <v>15.13422089356277</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.39591300712993</v>
+        <v>20.67869702014961</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.09743538540057</v>
+        <v>7.741420333980248</v>
       </c>
       <c r="E17">
-        <v>62.52554307366217</v>
+        <v>31.3773234542855</v>
       </c>
       <c r="F17">
-        <v>85.79500041074787</v>
+        <v>47.88998854715715</v>
       </c>
       <c r="G17">
-        <v>1.760159550367944</v>
+        <v>3.611224493041729</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.782744126461271</v>
+        <v>23.18420401634861</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.23188380161708</v>
+        <v>14.97542604592192</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.93885735165684</v>
+        <v>20.54370523478015</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.81627524233195</v>
+        <v>7.718790853988901</v>
       </c>
       <c r="E18">
-        <v>61.38816142984057</v>
+        <v>31.00633550637787</v>
       </c>
       <c r="F18">
-        <v>83.98319747730058</v>
+        <v>47.57130317205676</v>
       </c>
       <c r="G18">
-        <v>1.77234161608172</v>
+        <v>3.613324461141837</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.135283865228393</v>
+        <v>23.26261961155211</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.81385978142728</v>
+        <v>14.88372603486408</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.78435268117932</v>
+        <v>20.49784556902874</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.72276652560676</v>
+        <v>7.711205573782077</v>
       </c>
       <c r="E19">
-        <v>61.00789182115545</v>
+        <v>30.87973976038741</v>
       </c>
       <c r="F19">
-        <v>83.37932716173093</v>
+        <v>47.46341641886482</v>
       </c>
       <c r="G19">
-        <v>1.776376701089263</v>
+        <v>3.614039508817736</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.255576309551183</v>
+        <v>23.28930851035359</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.67347660331784</v>
+        <v>14.8526182679841</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.48066364228644</v>
+        <v>20.7036069219452</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.15034528003588</v>
+        <v>7.745644880065508</v>
       </c>
       <c r="E20">
-        <v>62.73858807886366</v>
+        <v>31.44551705271595</v>
       </c>
       <c r="F20">
-        <v>86.13528927026893</v>
+        <v>47.94897413794731</v>
       </c>
       <c r="G20">
-        <v>1.757858816881875</v>
+        <v>3.610837748817856</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.71808378690685</v>
+        <v>23.16975684684436</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>24.30986629619575</v>
+        <v>14.99236856502408</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.87208982166524</v>
+        <v>21.38364914206413</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.76348881478963</v>
+        <v>7.866637058322666</v>
       </c>
       <c r="E21">
-        <v>69.0934004518907</v>
+        <v>33.27803076807638</v>
       </c>
       <c r="F21">
-        <v>96.40267923948453</v>
+        <v>49.57970187198939</v>
       </c>
       <c r="G21">
-        <v>1.686485072041796</v>
+        <v>3.60035868607918</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.293960411596261</v>
+        <v>22.7776703991005</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>26.58395978890164</v>
+        <v>15.45732711413562</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.55386621019733</v>
+        <v>21.81902760974936</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>15.08845927294541</v>
+        <v>7.949579218606634</v>
       </c>
       <c r="E22">
-        <v>74.13077124102072</v>
+        <v>34.4248773116753</v>
       </c>
       <c r="F22">
-        <v>104.6635530564206</v>
+        <v>50.64305789105741</v>
       </c>
       <c r="G22">
-        <v>1.626159635867318</v>
+        <v>3.593714838662582</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.148159222263841</v>
+        <v>22.52849680158296</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>28.30143959295939</v>
+        <v>15.75730807138112</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.63633144780898</v>
+        <v>21.58752768374333</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>14.34062292852878</v>
+        <v>7.904962398654054</v>
       </c>
       <c r="E23">
-        <v>71.30612608111068</v>
+        <v>33.81741953736175</v>
       </c>
       <c r="F23">
-        <v>100.0215749912018</v>
+        <v>50.07586417825629</v>
       </c>
       <c r="G23">
-        <v>1.660389931738699</v>
+        <v>3.597242217238649</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.091352913484879</v>
+        <v>22.66084239658213</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>27.34884482972371</v>
+        <v>15.59758863889483</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.44234115046752</v>
+        <v>20.69234819908894</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.12638963392487</v>
+        <v>7.743733610250738</v>
       </c>
       <c r="E24">
-        <v>62.6421676707794</v>
+        <v>31.41470510127477</v>
       </c>
       <c r="F24">
-        <v>85.98124535052528</v>
+        <v>47.9223071247079</v>
       </c>
       <c r="G24">
-        <v>1.758900827151888</v>
+        <v>3.611012520030562</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.747289165498612</v>
+        <v>23.17628579344312</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>24.27458547683466</v>
+        <v>14.9847101116964</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.10584650992833</v>
+        <v>19.69223309491429</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.20697310524478</v>
+        <v>7.586840400505531</v>
       </c>
       <c r="E25">
-        <v>54.69472886381936</v>
+        <v>28.60372160413435</v>
       </c>
       <c r="F25">
-        <v>73.50559982959687</v>
+        <v>45.60169685859243</v>
       </c>
       <c r="G25">
-        <v>1.840621029335871</v>
+        <v>3.62676269494144</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.350274881052169</v>
+        <v>23.76311894796806</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.30234873578488</v>
+        <v>14.31010605028944</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_253/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.93154223749944</v>
+        <v>24.57808120873294</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.486252983760925</v>
+        <v>8.92299613296306</v>
       </c>
       <c r="E2">
-        <v>26.34420579266186</v>
+        <v>49.10314559301454</v>
       </c>
       <c r="F2">
-        <v>43.90995181043784</v>
+        <v>65.03003792781831</v>
       </c>
       <c r="G2">
-        <v>3.639151515505089</v>
+        <v>1.893287634602723</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.22231225039193</v>
+        <v>10.24031709131114</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.80559457550026</v>
+        <v>19.14899417570209</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.40400383739879</v>
+        <v>22.78677930122353</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.427461062668137</v>
+        <v>8.080546964152932</v>
       </c>
       <c r="E3">
-        <v>24.69422820864891</v>
+        <v>45.29495664850442</v>
       </c>
       <c r="F3">
-        <v>42.78218030129256</v>
+        <v>59.42333764228363</v>
       </c>
       <c r="G3">
-        <v>3.648051832361162</v>
+        <v>1.926957941219744</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.55071170708684</v>
+        <v>11.50022508088233</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.46098306542121</v>
+        <v>17.65966123704053</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.07535418724256</v>
+        <v>21.64171411598059</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.395980570209996</v>
+        <v>7.567237528397166</v>
       </c>
       <c r="E4">
-        <v>23.62263855435555</v>
+        <v>42.91412770130382</v>
       </c>
       <c r="F4">
-        <v>42.10184247013062</v>
+        <v>55.99333579238645</v>
       </c>
       <c r="G4">
-        <v>3.653768711543347</v>
+        <v>1.94713137556561</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.76092740271038</v>
+        <v>12.26909770768613</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.24884841513078</v>
+        <v>16.72052004430279</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.94042784500537</v>
+        <v>21.16299199946626</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.384309345525342</v>
+        <v>7.38839179390732</v>
       </c>
       <c r="E5">
-        <v>23.1712759940711</v>
+        <v>41.92965667423167</v>
       </c>
       <c r="F5">
-        <v>41.82808832876966</v>
+        <v>54.59308231130485</v>
       </c>
       <c r="G5">
-        <v>3.656162232874639</v>
+        <v>1.955280069608459</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.84876178970738</v>
+        <v>12.58210054978689</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.16239092067583</v>
+        <v>16.330521543156</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.91796895185421</v>
+        <v>21.08275148956335</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.382441069519056</v>
+        <v>7.36205240360674</v>
       </c>
       <c r="E6">
-        <v>23.0954421209373</v>
+        <v>41.76523764930592</v>
       </c>
       <c r="F6">
-        <v>41.78285528461852</v>
+        <v>54.36028755446253</v>
       </c>
       <c r="G6">
-        <v>3.656563545024724</v>
+        <v>1.956630118661075</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.8634780516073</v>
+        <v>12.63407930020645</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.14803780794216</v>
+        <v>16.26529526677726</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.07353830496393</v>
+        <v>21.63530773797204</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.395818489543315</v>
+        <v>7.56441737606081</v>
       </c>
       <c r="E7">
-        <v>23.61661071206052</v>
+        <v>42.90091256668548</v>
       </c>
       <c r="F7">
-        <v>42.09813581555773</v>
+        <v>55.97446781300847</v>
       </c>
       <c r="G7">
-        <v>3.653800732279901</v>
+        <v>1.947241502544626</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.76210316536039</v>
+        <v>12.27331916304478</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.2476822944495</v>
+        <v>16.71529115694013</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.7507425284142</v>
+        <v>23.96932051554303</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.465021720837463</v>
+        <v>8.630982651357856</v>
       </c>
       <c r="E8">
-        <v>25.78744540290887</v>
+        <v>47.79645051660086</v>
       </c>
       <c r="F8">
-        <v>43.51884563279096</v>
+        <v>63.0902307148567</v>
       </c>
       <c r="G8">
-        <v>3.642168315410911</v>
+        <v>1.905038053389528</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.33377208995873</v>
+        <v>10.67624617719406</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.68695873563933</v>
+        <v>18.63985214955079</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.03328718501071</v>
+        <v>28.23445858443571</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.637385567601935</v>
+        <v>10.82326084038767</v>
       </c>
       <c r="E9">
-        <v>29.58002544393358</v>
+        <v>57.29657849275874</v>
       </c>
       <c r="F9">
-        <v>46.38181724292822</v>
+        <v>77.53866582966951</v>
       </c>
       <c r="G9">
-        <v>3.621335563657547</v>
+        <v>1.814767705497085</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.56127047856659</v>
+        <v>7.472304447703657</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.53883118912527</v>
+        <v>22.28825731105388</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.93826574673055</v>
+        <v>31.28673206648814</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.786174136098849</v>
+        <v>12.6666739711806</v>
       </c>
       <c r="E10">
-        <v>32.0840434632935</v>
+        <v>64.80161901633419</v>
       </c>
       <c r="F10">
-        <v>48.5073024520302</v>
+        <v>89.44470407280281</v>
       </c>
       <c r="G10">
-        <v>3.607205354309119</v>
+        <v>1.735270683703158</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.03398224515062</v>
+        <v>5.120656638105213</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>15.15228869094822</v>
+        <v>25.05954016741664</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.34009882768034</v>
+        <v>32.71268670026368</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.858570037809044</v>
+        <v>13.64752886891793</v>
       </c>
       <c r="E11">
-        <v>33.16225185366297</v>
+        <v>68.64516188140701</v>
       </c>
       <c r="F11">
-        <v>49.47413545366794</v>
+        <v>95.6719175138641</v>
       </c>
       <c r="G11">
-        <v>3.601025720509365</v>
+        <v>1.69169343818546</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.80266307115258</v>
+        <v>5.137046767638081</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.42741590334697</v>
+        <v>26.42717042354406</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.49071737719738</v>
+        <v>33.26939252398461</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.886649463528663</v>
+        <v>14.05893641659151</v>
       </c>
       <c r="E12">
-        <v>33.56182586500049</v>
+        <v>70.22986230158163</v>
       </c>
       <c r="F12">
-        <v>49.83986590875629</v>
+        <v>98.25909509008346</v>
       </c>
       <c r="G12">
-        <v>3.598720810316119</v>
+        <v>1.673162135851937</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.71628287263836</v>
+        <v>5.699240845951971</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.5309387906421</v>
+        <v>26.9787417473763</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.45834972722984</v>
+        <v>33.14841535970358</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.8805727225901</v>
+        <v>13.96796694667051</v>
       </c>
       <c r="E13">
-        <v>33.47615766231155</v>
+        <v>69.88078455917362</v>
       </c>
       <c r="F13">
-        <v>49.76112232265491</v>
+        <v>97.68834074097428</v>
       </c>
       <c r="G13">
-        <v>3.599215657547322</v>
+        <v>1.677272362069048</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.73483256006374</v>
+        <v>5.573706474126324</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.50867415697847</v>
+        <v>26.85790567833515</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.35252201387238</v>
+        <v>32.75803851201556</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.860866909222697</v>
+        <v>13.68037665520969</v>
       </c>
       <c r="E14">
-        <v>33.19529959061747</v>
+        <v>68.7722608375725</v>
       </c>
       <c r="F14">
-        <v>49.50423417329714</v>
+        <v>95.87903999946347</v>
       </c>
       <c r="G14">
-        <v>3.600835392046529</v>
+        <v>1.690219267210194</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.79553224169196</v>
+        <v>5.18135497662634</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>15.43594657681641</v>
+        <v>26.47168917565598</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.28749435991653</v>
+        <v>32.52165271637498</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.848882671362359</v>
+        <v>13.51038787016048</v>
       </c>
       <c r="E15">
-        <v>33.02213143487459</v>
+        <v>68.11342171533823</v>
       </c>
       <c r="F15">
-        <v>49.34682141894118</v>
+        <v>94.80614915974954</v>
       </c>
       <c r="G15">
-        <v>3.601832092516926</v>
+        <v>1.69783792714632</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.83287041572821</v>
+        <v>4.953367872695202</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>15.3913099438983</v>
+        <v>26.24040413594037</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.91179538171079</v>
+        <v>31.19502377789467</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.781536653118483</v>
+        <v>12.60667660436976</v>
       </c>
       <c r="E16">
-        <v>32.01235772059846</v>
+        <v>64.56335778212041</v>
       </c>
       <c r="F16">
-        <v>48.44408335064775</v>
+        <v>89.06122406871266</v>
       </c>
       <c r="G16">
-        <v>3.607614159688183</v>
+        <v>1.737908027644906</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.04927031601998</v>
+        <v>5.186599573454129</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>15.13422089356277</v>
+        <v>24.97348230427578</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.67869702014961</v>
+        <v>30.39591300712997</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.741420333980248</v>
+        <v>12.09743538540062</v>
       </c>
       <c r="E17">
-        <v>31.3773234542855</v>
+        <v>62.52554307366228</v>
       </c>
       <c r="F17">
-        <v>47.88998854715715</v>
+        <v>85.79500041074812</v>
       </c>
       <c r="G17">
-        <v>3.611224493041729</v>
+        <v>1.760159550367663</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.18420401634861</v>
+        <v>5.78274412646127</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.97542604592192</v>
+        <v>24.23188380161709</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.54370523478015</v>
+        <v>29.93885735165689</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.718790853988901</v>
+        <v>11.81627524233184</v>
       </c>
       <c r="E18">
-        <v>31.00633550637787</v>
+        <v>61.38816142984044</v>
       </c>
       <c r="F18">
-        <v>47.57130317205676</v>
+        <v>83.98319747730056</v>
       </c>
       <c r="G18">
-        <v>3.613324461141837</v>
+        <v>1.772341616081586</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.26261961155211</v>
+        <v>6.135283865228372</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.88372603486408</v>
+        <v>23.81385978142719</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.49784556902874</v>
+        <v>29.78435268117926</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.711205573782077</v>
+        <v>11.72276652560678</v>
       </c>
       <c r="E19">
-        <v>30.87973976038741</v>
+        <v>61.00789182115528</v>
       </c>
       <c r="F19">
-        <v>47.46341641886482</v>
+        <v>83.37932716173067</v>
       </c>
       <c r="G19">
-        <v>3.614039508817736</v>
+        <v>1.776376701089398</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.28930851035359</v>
+        <v>6.255576309551433</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.8526182679841</v>
+        <v>23.6734766033178</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.7036069219452</v>
+        <v>30.48066364228652</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.745644880065508</v>
+        <v>12.15034528003598</v>
       </c>
       <c r="E20">
-        <v>31.44551705271595</v>
+        <v>62.73858807886348</v>
       </c>
       <c r="F20">
-        <v>47.94897413794731</v>
+        <v>86.13528927026898</v>
       </c>
       <c r="G20">
-        <v>3.610837748817856</v>
+        <v>1.757858816881728</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.16975684684436</v>
+        <v>5.718083786906616</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.99236856502408</v>
+        <v>24.30986629619573</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.38364914206413</v>
+        <v>32.87208982166519</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.866637058322666</v>
+        <v>13.7634888147896</v>
       </c>
       <c r="E21">
-        <v>33.27803076807638</v>
+        <v>69.09340045189042</v>
       </c>
       <c r="F21">
-        <v>49.57970187198939</v>
+        <v>96.40267923948396</v>
       </c>
       <c r="G21">
-        <v>3.60035868607918</v>
+        <v>1.686485072041914</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.7776703991005</v>
+        <v>5.293960411596159</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>15.45732711413562</v>
+        <v>26.58395978890151</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.81902760974936</v>
+        <v>34.55386621019729</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.949579218606634</v>
+        <v>15.08845927294538</v>
       </c>
       <c r="E22">
-        <v>34.4248773116753</v>
+        <v>74.1307712410207</v>
       </c>
       <c r="F22">
-        <v>50.64305789105741</v>
+        <v>104.6635530564204</v>
       </c>
       <c r="G22">
-        <v>3.593714838662582</v>
+        <v>1.62615963586734</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.52849680158296</v>
+        <v>7.148159222263721</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.75730807138112</v>
+        <v>28.30143959295932</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.58752768374333</v>
+        <v>33.63633144780891</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.904962398654054</v>
+        <v>14.34062292852875</v>
       </c>
       <c r="E23">
-        <v>33.81741953736175</v>
+        <v>71.30612608111035</v>
       </c>
       <c r="F23">
-        <v>50.07586417825629</v>
+        <v>100.0215749912011</v>
       </c>
       <c r="G23">
-        <v>3.597242217238649</v>
+        <v>1.660389931738885</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.66084239658213</v>
+        <v>6.09135291348468</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>15.59758863889483</v>
+        <v>27.34884482972361</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.69234819908894</v>
+        <v>30.44234115046761</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.743733610250738</v>
+        <v>12.12638963392486</v>
       </c>
       <c r="E24">
-        <v>31.41470510127477</v>
+        <v>62.6421676707792</v>
       </c>
       <c r="F24">
-        <v>47.9223071247079</v>
+        <v>85.98124535052533</v>
       </c>
       <c r="G24">
-        <v>3.611012520030562</v>
+        <v>1.758900827152016</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.17628579344312</v>
+        <v>5.747289165498462</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.9847101116964</v>
+        <v>24.27458547683467</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.69223309491429</v>
+        <v>27.10584650992831</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.586840400505531</v>
+        <v>10.20697310524478</v>
       </c>
       <c r="E25">
-        <v>28.60372160413435</v>
+        <v>54.69472886381944</v>
       </c>
       <c r="F25">
-        <v>45.60169685859243</v>
+        <v>73.50559982959697</v>
       </c>
       <c r="G25">
-        <v>3.62676269494144</v>
+        <v>1.840621029335721</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.76311894796806</v>
+        <v>8.350274881052213</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.31010605028944</v>
+        <v>21.3023487357849</v>
       </c>
       <c r="M25">
         <v>0</v>
